--- a/EXCEL/my pratice/day2 if.xlsx
+++ b/EXCEL/my pratice/day2 if.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\data-analyst\EXCEL\my pratice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9BF22C-6271-4655-8F66-135B361942A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76348125-DFE8-4C40-A4D1-00B0B37C27CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7422BCD7-B590-420D-BB2F-E4CD12C8EBFA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{7422BCD7-B590-420D-BB2F-E4CD12C8EBFA}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -967,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD1784D2-3881-46F7-8265-22E8A791FCBD}">
-  <dimension ref="A1:N13"/>
+  <dimension ref="A1:P13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P1" sqref="P1:P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -978,7 +978,7 @@
     <col min="2" max="2" width="18.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -994,8 +994,11 @@
       <c r="G1">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="P1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1004,18 +1007,21 @@
       </c>
       <c r="D2" s="1">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E2">
         <f ca="1">IF(D2=1,5,IF(D2=2,4,IF(D2=3,3,IF(D2=4,2,IF(D2=5,1,"please check")))))</f>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <f ca="1">D2*$G$1</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="P2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1035,7 +1041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1044,18 +1050,18 @@
       </c>
       <c r="D4" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1064,15 +1070,15 @@
       </c>
       <c r="D5" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="H5" t="s">
         <v>4</v>
@@ -1098,7 +1104,7 @@
         <v>verdexes</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1130,7 +1136,7 @@
         <v>verdexes</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D7" s="1">
         <f t="shared" ca="1" si="0"/>
         <v>5</v>
@@ -1156,18 +1162,18 @@
         <v>verdexes</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D8" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <f ca="1">IF(D8=1,5,IF(D8=2,4,IF(D8=3,3,IF(D8=4,2,IF(D8=5,1,"please check")))))</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8">
         <f t="shared" ca="1" si="2"/>
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="K8">
         <f t="shared" si="3"/>
@@ -1182,18 +1188,18 @@
         <v>verdexes</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D9" s="1">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <f t="shared" ca="1" si="2"/>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="K9">
         <f t="shared" si="3"/>
@@ -1208,7 +1214,7 @@
         <v>verdexes</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>3</v>
       </c>
@@ -1217,13 +1223,13 @@
         <v>verdexes</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M11" t="str">
         <f t="shared" si="4"/>
         <v>verdexes</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>2</v>
       </c>
@@ -1232,7 +1238,7 @@
         <v>verdexes</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="M13" t="str">
         <f t="shared" si="4"/>
         <v>verdexes</v>
@@ -1295,15 +1301,15 @@
       </c>
       <c r="C2" s="2">
         <f ca="1">RANDBETWEEN(1,5)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D2" s="3">
         <f t="shared" ref="D2:D11" ca="1" si="0">IF(C2=1,5,IF(C2=2,4,IF(C2=3,3,IF(C2=4,2,IF(C2=5,1,"please check")))))</f>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E9" ca="1" si="1">D2*$F$1</f>
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>9</v>
@@ -1361,15 +1367,15 @@
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G4" s="4" t="s">
         <v>13</v>
@@ -1394,15 +1400,15 @@
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>12</v>
@@ -1427,15 +1433,15 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D6" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="1"/>
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>10</v>
@@ -1454,15 +1460,15 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C7" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D7" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="1"/>
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="I7" s="6" t="s">
         <v>10</v>
@@ -1475,15 +1481,15 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D8" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="1"/>
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="I8" s="8" t="s">
         <v>9</v>
@@ -1496,15 +1502,15 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="1"/>
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I9" s="7" t="s">
         <v>12</v>
@@ -1517,15 +1523,15 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="C10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" s="3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E10">
         <f t="shared" ref="E10:E11" ca="1" si="4">D10*$F$1</f>
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="I10" s="9" t="s">
         <v>11</v>
@@ -2120,7 +2126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AE52275-C028-468F-8A99-21BA3DCEBE06}">
   <dimension ref="A2:M20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
